--- a/likeUserDirectMessage/userDetails.xlsx
+++ b/likeUserDirectMessage/userDetails.xlsx
@@ -30,19 +30,19 @@
     <t>postUrl</t>
   </si>
   <si>
-    <t>Crazypriyalovely07</t>
-  </si>
-  <si>
-    <t>Bot@12345</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/CyQd-5rLH9Z/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
-  </si>
-  <si>
     <t>Thanks for your Like and Support</t>
   </si>
   <si>
     <t>sendMessage</t>
+  </si>
+  <si>
+    <t>pytourist</t>
+  </si>
+  <si>
+    <t>Mike@2023</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CyfxvA0yFKo/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,15 +406,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
